--- a/第二次提交物-未命名小组/经济预算.xlsx
+++ b/第二次提交物-未命名小组/经济预算.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\伽马\Unnamed\第二次提交物-未命名小组\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1681835-70E0-4016-93A1-542D6C5BF8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E5F57C-CA49-476C-812A-EBB3AD4455B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="方案1（奖金多，用于意外支出更多" sheetId="1" r:id="rId1"/>
-    <sheet name="方案2（已选" sheetId="2" r:id="rId2"/>
-    <sheet name="方案2改进版" sheetId="3" r:id="rId3"/>
+    <sheet name="方案2（已选" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="方案2改进版" sheetId="3" r:id="rId2"/>
+    <sheet name="第一期（9月17日前）" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>科目</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>使用开源数据及库</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>每人工资￥8000</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -156,6 +152,90 @@
   </si>
   <si>
     <t>供组员骑车前来开会，为组员报销单车押金</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT小型企业单人license</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsoft 365 商业标准版*2人*1月</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠普(HP)HPE DL20 机架式服务器邮件财务web 公司企业小型ERP主机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车费用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚餐费用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议场地租借费用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料费用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期总计</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车-从3号楼去往食堂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车-从5号楼去往食堂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车-从食堂去往3号楼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车-从食堂去往5号楼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车-从3号楼去往研究生教学楼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车-从5号楼去往研究生教学楼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车-从研究生教学楼去往3号楼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车-从研究生教学楼去往5号楼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>租借研究生教学楼教室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5杯奶茶</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +247,7 @@
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +407,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -753,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +852,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1120,225 +1213,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="35.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>40000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUM(C2:C12)</f>
-        <v>85100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -1451,7 +1325,7 @@
         <v>0.1</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1482,7 +1356,7 @@
         <v>0.05</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1499,7 +1373,7 @@
         <v>0.4</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1530,7 +1404,7 @@
         <v>0.08</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,12 +1419,12 @@
         <v>94000</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1560,12 +1434,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62D4191-E4A0-4F0D-B1F2-23B8DFCFC3D8}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1466,7 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,7 +1511,7 @@
         <v>0.02</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,7 +1539,7 @@
         <v>0.01</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,7 +1556,7 @@
         <v>0.1</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1713,10 +1587,10 @@
         <v>0.01</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,7 +1607,7 @@
         <v>0.4</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1750,7 +1624,7 @@
         <v>0.01</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1767,7 +1641,7 @@
         <v>0.08</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1782,22 +1656,301 @@
         <v>85000</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4B6174-297A-483C-8063-13A156E98E8C}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44086</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3371.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44086</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44086</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44087</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44087</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44087</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44087</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44087</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(D2:D15)</f>
+        <v>15244.619999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>